--- a/onlineshop/admin/export.xlsx
+++ b/onlineshop/admin/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>DANH SÁCH đơn hàng</t>
   </si>
@@ -35,10 +35,7 @@
     <t>DateOrder</t>
   </si>
   <si>
-    <t>prod_count</t>
-  </si>
-  <si>
-    <t>total_amt</t>
+    <t>payment</t>
   </si>
   <si>
     <t>hoang tuan</t>
@@ -50,7 +47,10 @@
     <t>giaLA</t>
   </si>
   <si>
-    <t>2021-05-04 15:59:53</t>
+    <t>2021-01-15 21:26:00</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
   <si>
     <t>hoang vuong</t>
@@ -62,10 +62,10 @@
     <t>qn</t>
   </si>
   <si>
-    <t>2021-06-03 15:59:55</t>
-  </si>
-  <si>
-    <t>2021-04-04 15:59:54</t>
+    <t>2021-03-15 21:26:00</t>
+  </si>
+  <si>
+    <t>2021-05-15 21:26:00</t>
   </si>
   <si>
     <t>pham truong</t>
@@ -77,7 +77,85 @@
     <t>ho chi minh</t>
   </si>
   <si>
-    <t>2021-06-04 15:59:30</t>
+    <t>2021-06-19 09:01:26</t>
+  </si>
+  <si>
+    <t>htua8288@gmail.com</t>
+  </si>
+  <si>
+    <t>gialai</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:46:10</t>
+  </si>
+  <si>
+    <t>pay online</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:46:05</t>
+  </si>
+  <si>
+    <t>2021-01-15 20:46:01</t>
+  </si>
+  <si>
+    <t>2021-02-15 20:45:57</t>
+  </si>
+  <si>
+    <t>2021-05-15 20:45:53</t>
+  </si>
+  <si>
+    <t>2021-03-15 20:45:48</t>
+  </si>
+  <si>
+    <t>2021-02-15 20:45:17</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:45:11</t>
+  </si>
+  <si>
+    <t>2021-04-15 20:44:45</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:36</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:33</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:24</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:39</t>
+  </si>
+  <si>
+    <t>2021-06-16 21:20:34</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:53</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:44:56</t>
+  </si>
+  <si>
+    <t>2021-04-15 20:45:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 20:46:18</t>
+  </si>
+  <si>
+    <t>2021-06-15 21:37:48</t>
+  </si>
+  <si>
+    <t>2021-02-15 20:44:20</t>
+  </si>
+  <si>
+    <t>trung Nguyen</t>
+  </si>
+  <si>
+    <t>trung@gmail.com</t>
+  </si>
+  <si>
+    <t>vũng tàu</t>
   </si>
 </sst>
 </file>
@@ -479,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6"/>
@@ -533,11 +611,9 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -547,22 +623,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3500</v>
+      <c r="G9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -581,11 +654,8 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>10500</v>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -593,22 +663,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5000</v>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -627,11 +694,468 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>35000</v>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
